--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>101.1291058908258</v>
+        <v>98.62294467674243</v>
       </c>
       <c r="R2">
-        <v>910.1619530174321</v>
+        <v>887.6065020906819</v>
       </c>
       <c r="S2">
-        <v>0.004986875306427727</v>
+        <v>0.005018734788036125</v>
       </c>
       <c r="T2">
-        <v>0.004986875306427726</v>
+        <v>0.005018734788036125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>295.2675712298326</v>
+        <v>258.9360906292527</v>
       </c>
       <c r="R3">
-        <v>2657.408141068494</v>
+        <v>2330.424815663274</v>
       </c>
       <c r="S3">
-        <v>0.01456022523668452</v>
+        <v>0.01317676703102503</v>
       </c>
       <c r="T3">
-        <v>0.01456022523668452</v>
+        <v>0.01317676703102503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>26.68647532448778</v>
+        <v>18.58532251067512</v>
       </c>
       <c r="R4">
-        <v>240.17827792039</v>
+        <v>167.267902596076</v>
       </c>
       <c r="S4">
-        <v>0.001315962636463435</v>
+        <v>0.0009457718478891906</v>
       </c>
       <c r="T4">
-        <v>0.001315962636463435</v>
+        <v>0.0009457718478891904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>8.158326319773554</v>
+        <v>6.996142233409778</v>
       </c>
       <c r="R5">
-        <v>73.424936877962</v>
+        <v>62.96528010068801</v>
       </c>
       <c r="S5">
-        <v>0.0004023031322928858</v>
+        <v>0.0003560204222653126</v>
       </c>
       <c r="T5">
-        <v>0.0004023031322928858</v>
+        <v>0.0003560204222653126</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>4191.953395407397</v>
+        <v>4661.668733572595</v>
       </c>
       <c r="R6">
-        <v>37727.58055866657</v>
+        <v>41955.01860215335</v>
       </c>
       <c r="S6">
-        <v>0.2067134747124215</v>
+        <v>0.2372234891197517</v>
       </c>
       <c r="T6">
-        <v>0.2067134747124214</v>
+        <v>0.2372234891197517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>12239.28449547261</v>
@@ -883,10 +883,10 @@
         <v>110153.5604592535</v>
       </c>
       <c r="S7">
-        <v>0.6035432142029169</v>
+        <v>0.6228339974986082</v>
       </c>
       <c r="T7">
-        <v>0.6035432142029167</v>
+        <v>0.6228339974986082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>1106.194501202356</v>
+        <v>878.4833705316089</v>
       </c>
       <c r="R8">
-        <v>9955.750510821203</v>
+        <v>7906.35033478448</v>
       </c>
       <c r="S8">
-        <v>0.05454862864215836</v>
+        <v>0.04470435421340577</v>
       </c>
       <c r="T8">
-        <v>0.05454862864215835</v>
+        <v>0.04470435421340577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>338.1748846265511</v>
+        <v>330.6907699015822</v>
       </c>
       <c r="R9">
-        <v>3043.57396163896</v>
+        <v>2976.21692911424</v>
       </c>
       <c r="S9">
-        <v>0.01667606933278724</v>
+        <v>0.01682822670147775</v>
       </c>
       <c r="T9">
-        <v>0.01667606933278724</v>
+        <v>0.01682822670147775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>211.9508214383618</v>
+        <v>258.408016945683</v>
       </c>
       <c r="R10">
-        <v>1907.557392945256</v>
+        <v>2325.672152511147</v>
       </c>
       <c r="S10">
-        <v>0.01045171227706786</v>
+        <v>0.01314989436183974</v>
       </c>
       <c r="T10">
-        <v>0.01045171227706785</v>
+        <v>0.01314989436183974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>618.8347431236447</v>
+        <v>678.454308117531</v>
       </c>
       <c r="R11">
-        <v>5569.512688112803</v>
+        <v>6106.08877305778</v>
       </c>
       <c r="S11">
-        <v>0.03051595949611585</v>
+        <v>0.03452525423371795</v>
       </c>
       <c r="T11">
-        <v>0.03051595949611583</v>
+        <v>0.03452525423371795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>55.93068698170779</v>
+        <v>48.696541661994</v>
       </c>
       <c r="R12">
-        <v>503.3761828353701</v>
+        <v>438.2688749579461</v>
       </c>
       <c r="S12">
-        <v>0.00275805228696203</v>
+        <v>0.002478074737041733</v>
       </c>
       <c r="T12">
-        <v>0.002758052286962029</v>
+        <v>0.002478074737041732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>17.09857859224956</v>
+        <v>18.331020704472</v>
       </c>
       <c r="R13">
-        <v>153.887207330246</v>
+        <v>164.979186340248</v>
       </c>
       <c r="S13">
-        <v>0.0008431645727072374</v>
+        <v>0.0009328309108117666</v>
       </c>
       <c r="T13">
-        <v>0.0008431645727072373</v>
+        <v>0.0009328309108117666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>250.5445689258751</v>
+        <v>39.58912301041255</v>
       </c>
       <c r="R14">
-        <v>2254.901120332876</v>
+        <v>356.3021070937129</v>
       </c>
       <c r="S14">
-        <v>0.01235484594598173</v>
+        <v>0.002014615458212474</v>
       </c>
       <c r="T14">
-        <v>0.01235484594598173</v>
+        <v>0.002014615458212474</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>731.5172590513296</v>
+        <v>103.9418644145823</v>
       </c>
       <c r="R15">
-        <v>6583.655331461966</v>
+        <v>935.476779731241</v>
       </c>
       <c r="S15">
-        <v>0.03607255619689709</v>
+        <v>0.005289404535431775</v>
       </c>
       <c r="T15">
-        <v>0.03607255619689709</v>
+        <v>0.005289404535431775</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>66.11500613426611</v>
+        <v>7.46050142261489</v>
       </c>
       <c r="R16">
-        <v>595.035055208395</v>
+        <v>67.144512803534</v>
       </c>
       <c r="S16">
-        <v>0.003260261114453299</v>
+        <v>0.0003796507815559081</v>
       </c>
       <c r="T16">
-        <v>0.003260261114453298</v>
+        <v>0.000379650781555908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>20.21202830717122</v>
+        <v>2.808384361110222</v>
       </c>
       <c r="R17">
-        <v>181.9082547645409</v>
+        <v>25.275459249992</v>
       </c>
       <c r="S17">
-        <v>0.0009966949076625254</v>
+        <v>0.0001429133589295909</v>
       </c>
       <c r="T17">
-        <v>0.0009966949076625254</v>
+        <v>0.0001429133589295909</v>
       </c>
     </row>
   </sheetData>
